--- a/notebook-tests/Seedbox/COORDINATORS-PUROK LEADERS MASTERLIST.xlsx
+++ b/notebook-tests/Seedbox/COORDINATORS-PUROK LEADERS MASTERLIST.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ML-Python\notebook-tests\Seedbox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -156,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,14 +215,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -274,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,10 +293,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,7 +327,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,26 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>8016</v>
       </c>
@@ -585,7 +558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>21779</v>
       </c>
@@ -611,7 +584,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>21818</v>
       </c>
@@ -637,7 +610,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>23443</v>
       </c>
@@ -663,7 +636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>23486</v>
       </c>
@@ -689,7 +662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>26253</v>
       </c>
@@ -715,7 +688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>29507</v>
       </c>
@@ -741,7 +714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>29855</v>
       </c>
@@ -767,7 +740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>29937</v>
       </c>
@@ -793,7 +766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>30062</v>
       </c>
@@ -819,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>30155</v>
       </c>
@@ -845,7 +818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>30233</v>
       </c>
